--- a/output/paper_information.xlsx
+++ b/output/paper_information.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The paper presents a novel method using a global guidance block and breast lesion boundary detection modules in a deep CNN for accurate breast ultrasound lesion segmentation, which is challenging due to speckle artifacts and blurry lesion boundaries. The global guidance block captures long-range dependencies from both spatial and channel domains, while the boundary detection modules enhance segmentation refinement. Experimental results show that the proposed method outperforms other segmentation methods on both breast lesion and prostate segmentation tasks.</t>
+          <t>The paper presents a new method for automatic breast lesion segmentation in ultrasound using a deep convolutional neural network with a global guidance block (GGB) and breast lesion boundary detection (BD) modules. The GGB improves long-range non-local dependencies capturing from both spatial and channel domains, while the BD modules enhance the boundary quality of a segmentation result refinement. Results from public and collected datasets show that this method outperforms other medical image segmentation methods and recent semantic segmentation methods on breast ultrasound lesion segmentation. Additionally, this network can also identify prostate regions better than state-of-the-art networks.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The paper discusses the challenges of accurately segmenting breast tumors from ultrasound images using convolutional neural networks (CNNs). The authors propose an enhanced selective kernel convolution method that integrates multiple feature map region representations and adaptively recalibrates their weights to focus more on high-contributing regions. This method is integrated into U-net with deep supervision constraints to capture robust representations of breast tumors. The authors conducted extensive experiments that show their method has a more competitive segmentation performance in breast ultrasound images compared to twelve state-of-the-art deep learning segmentation methods on three public breast ultrasound datasets.</t>
+          <t>The paper presents a novel method for segmenting breast tumors from ultrasound images using an enhanced selective kernel convolution (SKC) that integrates multiple feature map region representations and adapts the weights of these regions from the channel and spatial dimensions. This method enables the network to focus more on high-contributing regions and mitigate the perturbation of less useful regions, resulting in more accurate segmentation of breast lesions. The method is integrated into U-net with deep supervision constraints and is shown to have a competitive segmentation performance compared to twelve state-of-the-art deep learning segmentation methods on three public breast ultrasound datasets.</t>
         </is>
       </c>
     </row>
